--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://u36511598001-my.sharepoint.com/personal/20231220000036_u36511598001_onmicrosoft_com/Documents/ドキュメント/Git_SaveFile/Gitlesson/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{93031D7F-B9F1-4E14-956C-0DB057D012C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6C3696E5-DF98-41ED-A5DC-D29A5EB052B6}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{93031D7F-B9F1-4E14-956C-0DB057D012C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BA76DE45-6722-449B-BD2F-059334AA1AE7}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{807C8845-AF40-4D8C-8954-A7E0A4BCB132}"/>
   </bookViews>
@@ -36,9 +36,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>test</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>test2</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -104,6 +108,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -423,9 +431,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20FFD03B-1A4A-432D-83A3-590AB37E11E7}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <sheetData>
@@ -434,6 +444,11 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
